--- a/PROJETO DIO - 2º MÓDULO.xlsx
+++ b/PROJETO DIO - 2º MÓDULO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL COM IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0900832C-416F-44E9-A73B-3700D136C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548393F-1C29-4A9B-954E-A7B07A0316C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="75" firstSheet="2" activeTab="2" xr2:uid="{6135840D-0E44-4222-AA3C-30F769337254}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="75" firstSheet="1" activeTab="1" xr2:uid="{6135840D-0E44-4222-AA3C-30F769337254}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -3253,8 +3253,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A3:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D22"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,12 +3392,18 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Banco não encontrado" error="Informe um banco da lista" promptTitle="Informe um banco" prompt="Informe um banco vinculado ao seu CEP" xr:uid="{710F9B5F-52EF-49CD-A6E2-44D545081D70}">
           <x14:formula1>
             <xm:f>TABELA!$A$2:$A$51</xm:f>
           </x14:formula1>
-          <xm:sqref>D10 D15 D20</xm:sqref>
+          <xm:sqref>D10 D15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Banco não encontrado" error="Informe um banco da lista" promptTitle="Informe um banco" prompt="Informe um banco vinculado ao seu CPF" xr:uid="{D45F4A52-4C0D-44C1-A726-E5FA1DB7E7E6}">
+          <x14:formula1>
+            <xm:f>TABELA!$A$2:$A$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3410,7 +3416,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
@@ -3567,7 +3573,7 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C8:E8"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D30" xr:uid="{B4D102B9-409F-487F-9DF8-C6BD6667F53C}">
       <formula1>"HOLLERITH,CNPL,FREELANCE"</formula1>
     </dataValidation>
